--- a/bank statement generator/bank_statements/statement_82.xlsx
+++ b/bank statement generator/bank_statements/statement_82.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 22.10.2023</t>
+          <t>KONTOSTAND AM 29.03.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,88 +759,88 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>26.10.</t>
+          <t>31.03.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>27.10.</t>
+          <t>01.04.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>BEITRAG Allianz SE K-3630567</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>25,14-</t>
+          <t>53,45-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>28.10.</t>
+          <t>01.04.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>29.10.</t>
+          <t>02.04.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG ARAL TANKSTELLE</t>
+          <t>RECHNUNG VODAFONE GMBH 1656036</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>74,75-</t>
+          <t>41,77-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>29.10.</t>
+          <t>05.04.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>30.10.</t>
+          <t>06.04.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL XADLZT</t>
+          <t>MCDONALDS Cottbus</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>25,50-</t>
+          <t>14,05-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>31.10.</t>
+          <t>06.04.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>01.11.</t>
+          <t>07.04.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>BURGER KING Ravensburg</t>
+          <t>KARTENZAHLUNG SHELL TANKSTELLE</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>14,12-</t>
+          <t>54,20-</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 03.11.2023</t>
+          <t>KONTOSTAND AM 09.04.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>139,51-</t>
+          <t>163,47-</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 10.11.2023</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 15.04.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
